--- a/data/output/results/df_plot.xlsx
+++ b/data/output/results/df_plot.xlsx
@@ -1795,7 +1795,7 @@
         <v>217.314949</v>
       </c>
       <c r="C62" t="n">
-        <v>431.9810475312901</v>
+        <v>899.2311441015672</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -1819,7 +1819,7 @@
         <v>332.062614</v>
       </c>
       <c r="C63" t="n">
-        <v>528.0462894185491</v>
+        <v>923.3878513876025</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -1843,7 +1843,7 @@
         <v>609.1197265</v>
       </c>
       <c r="C64" t="n">
-        <v>818.0553835137255</v>
+        <v>1231.774477004893</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>1048.486287</v>
       </c>
       <c r="C65" t="n">
-        <v>1562.288836136779</v>
+        <v>2061.186356339399</v>
       </c>
       <c r="D65" t="n">
         <v>1048.486287</v>
@@ -1892,7 +1892,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>431.9810475312901</v>
+        <v>899.2311441015672</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>528.0462894185491</v>
+        <v>923.3878513876025</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>818.0553835137255</v>
+        <v>1231.774477004893</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
